--- a/cig2019/Assets/streamingAssets/Xlsxs/GameSetting.xlsx
+++ b/cig2019/Assets/streamingAssets/Xlsxs/GameSetting.xlsx
@@ -357,7 +357,7 @@
   <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B6" sqref="B6"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
@@ -375,7 +375,7 @@
         <v>1</v>
       </c>
       <c r="B2" s="1">
-        <v>500</v>
+        <v>2000</v>
       </c>
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
@@ -383,7 +383,7 @@
         <v>2</v>
       </c>
       <c r="B3" s="1">
-        <v>1000</v>
+        <v>3000</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
@@ -391,7 +391,7 @@
         <v>3</v>
       </c>
       <c r="B4" s="1">
-        <v>1500</v>
+        <v>4000</v>
       </c>
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
@@ -399,7 +399,7 @@
         <v>4</v>
       </c>
       <c r="B5" s="1">
-        <v>2000</v>
+        <v>4500</v>
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
@@ -407,11 +407,12 @@
         <v>5</v>
       </c>
       <c r="B6" s="1">
-        <v>3500</v>
+        <v>5000</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>